--- a/documents/calculations.xlsx
+++ b/documents/calculations.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
     <sheet name="Low pass filters" sheetId="2" r:id="rId2"/>
+    <sheet name="Wave approximations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Fosc</t>
   </si>
@@ -85,6 +86,18 @@
   </si>
   <si>
     <t>Cutoff frequency</t>
+  </si>
+  <si>
+    <t>2 pii</t>
+  </si>
+  <si>
+    <t>0 to 1</t>
+  </si>
+  <si>
+    <t>2 pii * 0to1</t>
+  </si>
+  <si>
+    <t>SINE WAVE</t>
   </si>
 </sst>
 </file>
@@ -758,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +813,7 @@
         <v>2.2000000000000001E-7</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C15" si="0">1/(2*3.141592*A3*B3)</f>
+        <f t="shared" ref="C3:C4" si="0">1/(2*3.141592*A3*B3)</f>
         <v>72.343171001430875</v>
       </c>
     </row>
@@ -819,4 +832,367 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>0.35</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>0.65</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q4">
+        <v>0.75</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="S4">
+        <v>0.85</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="U4">
+        <v>0.95</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f>$B$1*B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:L5" si="0">$B$1*C4</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" si="1">$B$1*M4</f>
+        <v>3.4557519189487729</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5" si="2">$B$1*N4</f>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5" si="3">$B$1*O4</f>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="4">$B$1*P4</f>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5" si="5">$B$1*Q4</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5" si="6">$B$1*R4</f>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5" si="7">$B$1*S4</f>
+        <v>5.3407075111026483</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5" si="8">$B$1*T4</f>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5" si="9">$B$1*U4</f>
+        <v>5.9690260418206069</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5" si="10">$B$1*V4</f>
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>ROUND(128 + 127*SIN(B5),0)</f>
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:V7" si="11">ROUND(128 + 127*SIN(C5),0)</f>
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="11"/>
+        <v>203</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="11"/>
+        <v>231</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="11"/>
+        <v>249</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="11"/>
+        <v>255</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>249</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="11"/>
+        <v>231</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="11"/>
+        <v>203</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f>128 + 127*SIN(B6)</f>
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C7:V8" si="12">128 + 127*SIN(C6)</f>
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/calculations.xlsx
+++ b/documents/calculations.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
     <sheet name="Low pass filters" sheetId="2" r:id="rId2"/>
     <sheet name="Wave approximations" sheetId="3" r:id="rId3"/>
+    <sheet name="Moottorin pyörimisnopeus laskut" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Fosc</t>
   </si>
@@ -98,6 +99,24 @@
   </si>
   <si>
     <t>SINE WAVE</t>
+  </si>
+  <si>
+    <t>Kierron delay</t>
+  </si>
+  <si>
+    <t>motorDelay</t>
+  </si>
+  <si>
+    <t>motorStepDelay</t>
+  </si>
+  <si>
+    <t>Askelia per kierros</t>
+  </si>
+  <si>
+    <t>kierroksen pituus</t>
+  </si>
+  <si>
+    <t>kiertonopeus</t>
   </si>
 </sst>
 </file>
@@ -838,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1130,7 @@
         <v>128</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C7:V8" si="12">128 + 127*SIN(C6)</f>
+        <f t="shared" ref="C8:V8" si="12">128 + 127*SIN(C6)</f>
         <v>128</v>
       </c>
       <c r="D8">
@@ -1195,4 +1214,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4">
+        <v>1024</v>
+      </c>
+      <c r="G4">
+        <f>2*F4</f>
+        <v>2048</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:M4" si="0">2*G4</f>
+        <v>4096</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <f>$A$2*B4</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:I5" si="1">$A$2*C4</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.1024</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="2">$A$2*J4</f>
+        <v>3.2768000000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5" si="3">$A$2*K4</f>
+        <v>6.5536000000000003</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5" si="4">$A$2*L4</f>
+        <v>13.107200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <f>$B$2*B5</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:L6" si="5">$B$2*C5</f>
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>3.2768000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>6.5536000000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>13.107200000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>26.214400000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>52.428800000000003</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>104.85760000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>209.71520000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>419.43040000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <f>1/B6</f>
+        <v>156.25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:L7" si="6">1/C6</f>
+        <v>1.220703125</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>0.6103515625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="6"/>
+        <v>0.30517578125</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>0.152587890625</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>7.62939453125E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>3.814697265625E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>1.9073486328125E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>9.5367431640625E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>4.76837158203125E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>2.384185791015625E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/calculations.xlsx
+++ b/documents/calculations.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
     <sheet name="Low pass filters" sheetId="2" r:id="rId2"/>
     <sheet name="Wave approximations" sheetId="3" r:id="rId3"/>
-    <sheet name="Moottorin pyörimisnopeus laskut" sheetId="4" r:id="rId4"/>
+    <sheet name="Tmr0 interrupt taajuus" sheetId="5" r:id="rId4"/>
+    <sheet name="Taul3" sheetId="6" r:id="rId5"/>
+    <sheet name="Moottorin pyörimisnopeus laskut" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Fosc</t>
   </si>
@@ -117,19 +119,55 @@
   </si>
   <si>
     <t>kiertonopeus</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>prescaler</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>interrupt taajuus</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Freq / C4</t>
+  </si>
+  <si>
+    <t>Freq delta</t>
+  </si>
+  <si>
+    <t>Delay %</t>
+  </si>
+  <si>
+    <t>Max Delay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -170,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -179,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -496,7 +535,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +897,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,10 +1257,281 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <f>10000000/4</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3*B2</f>
+        <v>1792000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <f>B1/B4</f>
+        <v>1.3950892857142858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>261.63</v>
+      </c>
+      <c r="B2">
+        <f>A2/$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>1/B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>$D$12*D2</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>293.66000000000003</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="0">A3/$A$2</f>
+        <v>1.1224247983793909</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>0.12242479837939091</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">1/B3</f>
+        <v>0.89092828441054273</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">$D$12*D3</f>
+        <v>224.51392767145677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>329.63</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.2599090318388564</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="3">B4-B3</f>
+        <v>0.13748423345946548</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.79370809695719446</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>200.014440433213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>349.23</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.3348239880747621</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>7.4914956235905716E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.74916244308908164</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>188.78893565844857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>392</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.4982991247181134</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>0.16347513664335134</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.6674234693877551</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>168.19071428571428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>440</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.6817643236631885</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>0.18346519894507507</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.5946136363636364</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>149.84263636363636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>493.88</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.8877040094790354</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>0.20593968581584687</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.52974406738478985</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>133.49550498096704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>523.25</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.9999617780835532</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>0.11225776860451786</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.50000955566172955</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>126.00240802675584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1580,7 @@
         <v>2048</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:M4" si="0">2*G4</f>
+        <f t="shared" ref="H4:L4" si="0">2*G4</f>
         <v>4096</v>
       </c>
       <c r="I4">

--- a/documents/calculations.xlsx
+++ b/documents/calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>TMR0 prescaler</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Produced frequency</t>
+  </si>
+  <si>
+    <t>2x</t>
   </si>
 </sst>
 </file>
@@ -634,18 +637,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -656,7 +659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>10000000/4</f>
         <v>2500000</v>
@@ -669,7 +672,7 @@
         <v>133.9764201500536</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -680,7 +683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>1/A2</f>
         <v>3.9999999999999998E-7</v>
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -701,7 +704,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -709,7 +712,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -717,7 +720,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -725,7 +728,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -733,7 +736,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -755,15 +758,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -774,7 +777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>10000000/4</f>
         <v>2500000</v>
@@ -787,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
@@ -801,7 +804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -817,7 +820,7 @@
         <v>26457.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -833,7 +836,7 @@
         <v>26457.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -849,7 +852,7 @@
         <v>26457.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -878,13 +881,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -892,7 +895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>MAIN!C4</f>
         <v>5.3590568060021433E-5</v>
@@ -901,7 +904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -945,7 +948,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -994,7 +997,7 @@
         <v>3.5121114683815646</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>168.58135048231509</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>5.9318542480468759E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1122,25 +1125,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>74.047619047619051</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>83.112883879997753</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>93.293264024258178</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>98.840538164583577</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>110.94548280650793</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>124.53064396648848</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>139.77998736856665</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>148.09240785332977</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>166.2285980019038</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>186.583697806608</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>197.68107632916715</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1546,14 +1549,74 @@
         <v>221.8881353711075</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>252</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>133</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>225</v>
+      </c>
+      <c r="F20">
+        <v>189</v>
+      </c>
+      <c r="G20">
+        <v>133</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1566,19 +1629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1594,12 +1657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1610,7 +1673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1621,7 +1684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1633,12 +1696,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1712,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1723,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1671,7 +1734,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1747,7 @@
         <v>2.5870646766169153E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1714,12 +1777,12 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1734,17 +1797,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1767,7 +1830,7 @@
         <v>723.43171001430881</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -1779,7 +1842,7 @@
         <v>72.343171001430875</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1804,12 +1867,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1881,7 @@
         <v>6.2831853071795862</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +2038,7 @@
         <v>6.2831853071795862</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
